--- a/SecretSantaNode/list-updated.xlsx
+++ b/SecretSantaNode/list-updated.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="396" yWindow="576" windowWidth="19836" windowHeight="5244"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,9 +55,6 @@
     <t>aravind</t>
   </si>
   <si>
-    <t>ankit@gmail.com</t>
-  </si>
-  <si>
     <t>ankit</t>
   </si>
   <si>
@@ -77,27 +77,37 @@
   </si>
   <si>
     <t>deepika</t>
+  </si>
+  <si>
+    <t>ankit.jain@accoliteindia.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Cambria"/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="Cambria"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -106,73 +116,361 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.0"/>
-    <col customWidth="1" min="2" max="6" width="14.43"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -193,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -214,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -235,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -256,19 +554,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
@@ -277,12 +575,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
@@ -298,19 +596,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>4</v>
@@ -319,12 +617,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
@@ -340,8 +638,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
@@ -349,8 +647,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -358,8 +656,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -367,8 +665,8 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -376,8 +674,8 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
@@ -385,8 +683,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
@@ -394,8 +692,8 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
@@ -403,8 +701,8 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
@@ -412,8 +710,8 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -421,8 +719,8 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
@@ -430,20 +728,20 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -524,306 +822,306 @@
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="7"/>
-      <c r="C126" s="8"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="9"/>
-      <c r="C135" s="10"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="9"/>
-      <c r="C141" s="10"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="113" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="114" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="115" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="116" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="117" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="118" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="119" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="120" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="121" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="122" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="123" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="124" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="125" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="126" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+    </row>
+    <row r="131" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+    </row>
+    <row r="132" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+    </row>
+    <row r="133" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+    </row>
+    <row r="134" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B135" s="8"/>
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+    </row>
+    <row r="137" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+    </row>
+    <row r="138" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+    </row>
+    <row r="139" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B141" s="8"/>
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+    </row>
+    <row r="144" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+    </row>
+    <row r="145" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+    </row>
+    <row r="146" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+    </row>
+    <row r="176" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="195" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="196" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="197" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="198" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="199" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="200" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="201" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="202" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="203" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="204" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="205" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="206" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="207" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="208" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="209" ht="15.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
@@ -1617,6 +1915,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>